--- a/nop-biz/src/test/resources/_vfs/nop/test/imp/template5.test.xlsx
+++ b/nop-biz/src/test/resources/_vfs/nop/test/imp/template5.test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-biz\src\test\resources\_vfs\nop\test\imp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F15C43-DC0A-4045-97E1-312F75716BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815BFDFD-3607-49FC-AF9B-127F1D20E329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,21 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -86,6 +77,10 @@
   </si>
   <si>
     <t>结构</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dump</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -254,14 +249,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -555,43 +550,43 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="13"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="13"/>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="3"/>
       <c r="D4" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="8" t="s">
@@ -626,11 +621,11 @@
       <c r="C10" s="8"/>
     </row>
     <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
@@ -680,10 +675,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F09B2254-F693-4135-A5FC-B64FC0CA071C}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -693,37 +688,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C5" s="6">
         <v>333</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:C3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
